--- a/contratos/contratos-5-2009.xlsx
+++ b/contratos/contratos-5-2009.xlsx
@@ -664,7 +664,7 @@
     <t>ENLUZ S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -748,7 +748,7 @@
     <t>LANGONI JAVIER JOSE</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -760,7 +760,7 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
@@ -772,7 +772,7 @@
     <t>MANCHINI LIDIA MARTINA</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -1243,514 +1243,514 @@
     <t>30</t>
   </si>
   <si>
-    <t>918,00</t>
-  </si>
-  <si>
-    <t>236,00</t>
-  </si>
-  <si>
-    <t>209,00</t>
-  </si>
-  <si>
-    <t>5.665,00</t>
-  </si>
-  <si>
-    <t>70.250,00</t>
-  </si>
-  <si>
-    <t>747,98</t>
-  </si>
-  <si>
-    <t>1.104,48</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>878,17</t>
-  </si>
-  <si>
-    <t>17.710,00</t>
-  </si>
-  <si>
-    <t>80.371,37</t>
-  </si>
-  <si>
-    <t>8.354,25</t>
-  </si>
-  <si>
-    <t>13.676,61</t>
-  </si>
-  <si>
-    <t>5.921,14</t>
-  </si>
-  <si>
-    <t>607,31</t>
-  </si>
-  <si>
-    <t>3.772,60</t>
-  </si>
-  <si>
-    <t>2.576,24</t>
-  </si>
-  <si>
-    <t>883,47</t>
-  </si>
-  <si>
-    <t>5.900,76</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>677,50</t>
-  </si>
-  <si>
-    <t>298,21</t>
-  </si>
-  <si>
-    <t>7.108,15</t>
-  </si>
-  <si>
-    <t>6.303,88</t>
-  </si>
-  <si>
-    <t>3.783,50</t>
-  </si>
-  <si>
-    <t>1.935,30</t>
-  </si>
-  <si>
-    <t>74,48</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>551,00</t>
-  </si>
-  <si>
-    <t>963,90</t>
-  </si>
-  <si>
-    <t>6.158,00</t>
-  </si>
-  <si>
-    <t>1.349,00</t>
-  </si>
-  <si>
-    <t>1.976,49</t>
-  </si>
-  <si>
-    <t>2.888,40</t>
-  </si>
-  <si>
-    <t>22.930,00</t>
-  </si>
-  <si>
-    <t>5.584,65</t>
-  </si>
-  <si>
-    <t>17.593,78</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>3.626,30</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>2.860,00</t>
-  </si>
-  <si>
-    <t>13.075,60</t>
-  </si>
-  <si>
-    <t>737,35</t>
-  </si>
-  <si>
-    <t>1.183,37</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>929,00</t>
-  </si>
-  <si>
-    <t>2.114,52</t>
-  </si>
-  <si>
-    <t>16.482,39</t>
-  </si>
-  <si>
-    <t>1.482,72</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>895,41</t>
-  </si>
-  <si>
-    <t>37.485,18</t>
-  </si>
-  <si>
-    <t>5,66</t>
-  </si>
-  <si>
-    <t>81,50</t>
-  </si>
-  <si>
-    <t>126,00</t>
-  </si>
-  <si>
-    <t>1.239,99</t>
-  </si>
-  <si>
-    <t>1.387,18</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>194,55</t>
-  </si>
-  <si>
-    <t>174,00</t>
-  </si>
-  <si>
-    <t>91,82</t>
-  </si>
-  <si>
-    <t>9.996,00</t>
-  </si>
-  <si>
-    <t>164,30</t>
-  </si>
-  <si>
-    <t>2.903,50</t>
-  </si>
-  <si>
-    <t>699,00</t>
-  </si>
-  <si>
-    <t>832,00</t>
-  </si>
-  <si>
-    <t>68,79</t>
-  </si>
-  <si>
-    <t>3.790,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>259,56</t>
-  </si>
-  <si>
-    <t>10.062,00</t>
-  </si>
-  <si>
-    <t>2.333,15</t>
-  </si>
-  <si>
-    <t>1.049,00</t>
-  </si>
-  <si>
-    <t>1.193,85</t>
-  </si>
-  <si>
-    <t>5.820,60</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>710,00</t>
-  </si>
-  <si>
-    <t>79,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>548,00</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>231,52</t>
-  </si>
-  <si>
-    <t>971,25</t>
-  </si>
-  <si>
-    <t>456,30</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>15,96</t>
-  </si>
-  <si>
-    <t>2.354,00</t>
-  </si>
-  <si>
-    <t>1.984,20</t>
-  </si>
-  <si>
-    <t>31,20</t>
-  </si>
-  <si>
-    <t>6.952,11</t>
-  </si>
-  <si>
-    <t>76,63</t>
-  </si>
-  <si>
-    <t>28,18</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>163,06</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>7.471,00</t>
-  </si>
-  <si>
-    <t>912,00</t>
-  </si>
-  <si>
-    <t>18.196,00</t>
-  </si>
-  <si>
-    <t>803,80</t>
-  </si>
-  <si>
-    <t>186,00</t>
-  </si>
-  <si>
-    <t>296,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.030,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>447,60</t>
-  </si>
-  <si>
-    <t>1.228,49</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>394,00</t>
-  </si>
-  <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>1.766,41</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.937,94</t>
-  </si>
-  <si>
-    <t>252,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>2.781,75</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>8.970,00</t>
-  </si>
-  <si>
-    <t>9.824,76</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>3.663,00</t>
-  </si>
-  <si>
-    <t>367,40</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>1.895,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>927,00</t>
-  </si>
-  <si>
-    <t>30,25</t>
-  </si>
-  <si>
-    <t>579,02</t>
-  </si>
-  <si>
-    <t>3.125,00</t>
-  </si>
-  <si>
-    <t>1.255,00</t>
-  </si>
-  <si>
-    <t>1.670,01</t>
-  </si>
-  <si>
-    <t>294,06</t>
-  </si>
-  <si>
-    <t>337,50</t>
-  </si>
-  <si>
-    <t>280,40</t>
-  </si>
-  <si>
-    <t>90,30</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>2.795,05</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>2.767,27</t>
-  </si>
-  <si>
-    <t>1.240,82</t>
-  </si>
-  <si>
-    <t>4.160,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>486.232,47</t>
-  </si>
-  <si>
-    <t>121.500,00</t>
-  </si>
-  <si>
-    <t>1.019,30</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>245,10</t>
-  </si>
-  <si>
-    <t>318,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
+    <t>918.00</t>
+  </si>
+  <si>
+    <t>236.00</t>
+  </si>
+  <si>
+    <t>209.00</t>
+  </si>
+  <si>
+    <t>5665.00</t>
+  </si>
+  <si>
+    <t>70250.00</t>
+  </si>
+  <si>
+    <t>747.98</t>
+  </si>
+  <si>
+    <t>1104.48</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>878.17</t>
+  </si>
+  <si>
+    <t>17710.00</t>
+  </si>
+  <si>
+    <t>80371.37</t>
+  </si>
+  <si>
+    <t>8354.25</t>
+  </si>
+  <si>
+    <t>13676.61</t>
+  </si>
+  <si>
+    <t>5921.14</t>
+  </si>
+  <si>
+    <t>607.31</t>
+  </si>
+  <si>
+    <t>3772.60</t>
+  </si>
+  <si>
+    <t>2576.24</t>
+  </si>
+  <si>
+    <t>883.47</t>
+  </si>
+  <si>
+    <t>5900.76</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>677.50</t>
+  </si>
+  <si>
+    <t>298.21</t>
+  </si>
+  <si>
+    <t>7108.15</t>
+  </si>
+  <si>
+    <t>6303.88</t>
+  </si>
+  <si>
+    <t>3783.50</t>
+  </si>
+  <si>
+    <t>1935.30</t>
+  </si>
+  <si>
+    <t>74.48</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>551.00</t>
+  </si>
+  <si>
+    <t>963.90</t>
+  </si>
+  <si>
+    <t>6158.00</t>
+  </si>
+  <si>
+    <t>1349.00</t>
+  </si>
+  <si>
+    <t>1976.49</t>
+  </si>
+  <si>
+    <t>2888.40</t>
+  </si>
+  <si>
+    <t>22930.00</t>
+  </si>
+  <si>
+    <t>5584.65</t>
+  </si>
+  <si>
+    <t>17593.78</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>3626.30</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>2860.00</t>
+  </si>
+  <si>
+    <t>13075.60</t>
+  </si>
+  <si>
+    <t>737.35</t>
+  </si>
+  <si>
+    <t>1183.37</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>929.00</t>
+  </si>
+  <si>
+    <t>2114.52</t>
+  </si>
+  <si>
+    <t>16482.39</t>
+  </si>
+  <si>
+    <t>1482.72</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>895.41</t>
+  </si>
+  <si>
+    <t>37485.18</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>81.50</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>1239.99</t>
+  </si>
+  <si>
+    <t>1387.18</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>194.55</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>91.82</t>
+  </si>
+  <si>
+    <t>9996.00</t>
+  </si>
+  <si>
+    <t>164.30</t>
+  </si>
+  <si>
+    <t>2903.50</t>
+  </si>
+  <si>
+    <t>699.00</t>
+  </si>
+  <si>
+    <t>832.00</t>
+  </si>
+  <si>
+    <t>68.79</t>
+  </si>
+  <si>
+    <t>3790.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>259.56</t>
+  </si>
+  <si>
+    <t>10062.00</t>
+  </si>
+  <si>
+    <t>2333.15</t>
+  </si>
+  <si>
+    <t>1049.00</t>
+  </si>
+  <si>
+    <t>1193.85</t>
+  </si>
+  <si>
+    <t>5820.60</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>710.00</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>548.00</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>231.52</t>
+  </si>
+  <si>
+    <t>971.25</t>
+  </si>
+  <si>
+    <t>456.30</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>2354.00</t>
+  </si>
+  <si>
+    <t>1984.20</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>6952.11</t>
+  </si>
+  <si>
+    <t>76.63</t>
+  </si>
+  <si>
+    <t>28.18</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>163.06</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>7471.00</t>
+  </si>
+  <si>
+    <t>912.00</t>
+  </si>
+  <si>
+    <t>18196.00</t>
+  </si>
+  <si>
+    <t>803.80</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>296.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>447.60</t>
+  </si>
+  <si>
+    <t>1228.49</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>394.00</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>1766.41</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1937.94</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>2781.75</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>8970.00</t>
+  </si>
+  <si>
+    <t>9824.76</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>3663.00</t>
+  </si>
+  <si>
+    <t>367.40</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>1895.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>927.00</t>
+  </si>
+  <si>
+    <t>30.25</t>
+  </si>
+  <si>
+    <t>579.02</t>
+  </si>
+  <si>
+    <t>3125.00</t>
+  </si>
+  <si>
+    <t>1255.00</t>
+  </si>
+  <si>
+    <t>1670.01</t>
+  </si>
+  <si>
+    <t>294.06</t>
+  </si>
+  <si>
+    <t>337.50</t>
+  </si>
+  <si>
+    <t>280.40</t>
+  </si>
+  <si>
+    <t>90.30</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>2795.05</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>2767.27</t>
+  </si>
+  <si>
+    <t>1240.82</t>
+  </si>
+  <si>
+    <t>4160.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>486232.47</t>
+  </si>
+  <si>
+    <t>121500.00</t>
+  </si>
+  <si>
+    <t>1019.30</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>245.10</t>
+  </si>
+  <si>
+    <t>318.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
   </si>
 </sst>
 </file>
